--- a/modules/tracker/docs/templates/Tracker_Question_Mapping_Template.xlsx
+++ b/modules/tracker/docs/templates/Tracker_Question_Mapping_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/modules/tracker/docs/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234BB76E-6223-EE47-A937-1BFBC53DD2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EED78D-B3D8-724B-BF27-C080F4E1112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="500" windowWidth="29860" windowHeight="23520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="500" windowWidth="22420" windowHeight="24100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -879,9 +879,6 @@
     <t>This tracks: mean + top2 + your custom "promoter" + your custom "detractor" ranges</t>
   </si>
   <si>
-    <t>2. Single Choice Questions (QuestionType = "SingleChoice")</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -1925,6 +1922,9 @@
   </si>
   <si>
     <t>- Tracking top mentions only</t>
+  </si>
+  <si>
+    <t>2. Single_Response Questions (QuestionType = "Single_Response")</t>
   </si>
 </sst>
 </file>
@@ -2193,13 +2193,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2515,24 +2515,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="A2" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2540,30 +2540,30 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2571,54 +2571,54 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2626,44 +2626,44 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -2671,44 +2671,44 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="28" spans="1:6" ht="23" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
@@ -2837,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2859,7 +2859,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2885,10 +2885,10 @@
         <v>28</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>22</v>
@@ -2934,7 +2934,7 @@
         <v>63</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>64</v>
@@ -2954,14 +2954,14 @@
         <v>72</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3415,7 +3415,7 @@
     </row>
     <row r="53" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>108</v>
+        <v>346</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>110</v>
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
@@ -3469,10 +3469,10 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>114</v>
       </c>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="68" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="20" t="s">
         <v>119</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>120</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -3603,10 +3603,10 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>124</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>128</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="85" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="B85" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -3761,10 +3761,10 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>134</v>
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
@@ -3773,10 +3773,10 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>136</v>
       </c>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
@@ -3785,10 +3785,10 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
@@ -3809,10 +3809,10 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="20" t="s">
         <v>141</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>142</v>
       </c>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="95" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="B95" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="101" spans="2:7" ht="23" x14ac:dyDescent="0.25">
       <c r="B101" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19"/>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C117" s="19"/>
       <c r="D117" s="19"/>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C120" s="19"/>
       <c r="D120" s="19"/>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C122" s="19"/>
       <c r="D122" s="19"/>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C130" s="19"/>
       <c r="D130" s="19"/>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C145" s="19"/>
       <c r="D145" s="19"/>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C147" s="19"/>
       <c r="D147" s="19"/>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C149" s="19"/>
       <c r="D149" s="19"/>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C154" s="19"/>
       <c r="D154" s="19"/>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C155" s="19"/>
       <c r="D155" s="19"/>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C160" s="19"/>
       <c r="D160" s="19"/>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C161" s="19"/>
       <c r="D161" s="19"/>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C162" s="19"/>
       <c r="D162" s="19"/>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C163" s="19"/>
       <c r="D163" s="19"/>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C171" s="19"/>
       <c r="D171" s="19"/>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="19"/>
       <c r="D183" s="19"/>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C185" s="19"/>
       <c r="D185" s="19"/>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C187" s="19"/>
       <c r="D187" s="19"/>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C189" s="19"/>
       <c r="D189" s="19"/>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C191" s="19"/>
       <c r="D191" s="19"/>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C193" s="19"/>
       <c r="D193" s="19"/>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C195" s="19"/>
       <c r="D195" s="19"/>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C196" s="19"/>
       <c r="D196" s="19"/>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C197" s="19"/>
       <c r="D197" s="19"/>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C198" s="19"/>
       <c r="D198" s="19"/>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C199" s="19"/>
       <c r="D199" s="19"/>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C201" s="19"/>
       <c r="D201" s="19"/>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C202" s="19"/>
       <c r="D202" s="19"/>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C203" s="19"/>
       <c r="D203" s="19"/>
@@ -4838,8 +4838,8 @@
       <c r="G203" s="19"/>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B204" s="30" t="s">
-        <v>346</v>
+      <c r="B204" s="26" t="s">
+        <v>345</v>
       </c>
       <c r="C204" s="19"/>
       <c r="D204" s="19"/>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C206" s="19"/>
       <c r="D206" s="19"/>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C208" s="19"/>
       <c r="D208" s="19"/>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C210" s="19"/>
       <c r="D210" s="19"/>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C212" s="19"/>
       <c r="D212" s="19"/>
@@ -4929,7 +4929,7 @@
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C214" s="19"/>
       <c r="D214" s="19"/>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C216" s="19"/>
       <c r="D216" s="19"/>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C217" s="19"/>
       <c r="D217" s="19"/>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C218" s="19"/>
       <c r="D218" s="19"/>
@@ -4985,7 +4985,7 @@
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C220" s="19"/>
       <c r="D220" s="19"/>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C222" s="19"/>
       <c r="D222" s="19"/>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C224" s="19"/>
       <c r="D224" s="19"/>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C226" s="19"/>
       <c r="D226" s="19"/>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C228" s="19"/>
       <c r="D228" s="19"/>
@@ -5075,7 +5075,7 @@
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C230" s="19"/>
       <c r="D230" s="19"/>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C232" s="19"/>
       <c r="D232" s="19"/>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C233" s="19"/>
       <c r="D233" s="19"/>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C234" s="19"/>
       <c r="D234" s="19"/>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C235" s="19"/>
       <c r="D235" s="19"/>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C236" s="19"/>
       <c r="D236" s="19"/>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C238" s="19"/>
       <c r="D238" s="19"/>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C239" s="19"/>
       <c r="D239" s="19"/>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C240" s="19"/>
       <c r="D240" s="19"/>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C241" s="19"/>
       <c r="D241" s="19"/>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C242" s="19"/>
       <c r="D242" s="19"/>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C244" s="19"/>
       <c r="D244" s="19"/>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C246" s="19"/>
       <c r="D246" s="19"/>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C248" s="19"/>
       <c r="D248" s="19"/>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C250" s="19"/>
       <c r="D250" s="19"/>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C252" s="19"/>
       <c r="D252" s="19"/>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C254" s="19"/>
       <c r="D254" s="19"/>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C255" s="19"/>
       <c r="D255" s="19"/>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C256" s="19"/>
       <c r="D256" s="19"/>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C257" s="19"/>
       <c r="D257" s="19"/>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B258" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C258" s="19"/>
       <c r="D258" s="19"/>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C259" s="19"/>
       <c r="D259" s="19"/>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C260" s="19"/>
       <c r="D260" s="19"/>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C261" s="19"/>
       <c r="D261" s="19"/>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C263" s="19"/>
       <c r="D263" s="19"/>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B264" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C264" s="19"/>
       <c r="D264" s="19"/>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B265" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C265" s="19"/>
       <c r="D265" s="19"/>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C266" s="19"/>
       <c r="D266" s="19"/>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B267" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C267" s="19"/>
       <c r="D267" s="19"/>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B268" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C268" s="19"/>
       <c r="D268" s="19"/>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B269" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C269" s="19"/>
       <c r="D269" s="19"/>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B270" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C270" s="19"/>
       <c r="D270" s="19"/>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B271" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C271" s="19"/>
       <c r="D271" s="19"/>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B272" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C272" s="19"/>
       <c r="D272" s="19"/>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C274" s="19"/>
       <c r="D274" s="19"/>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C276" s="19"/>
       <c r="D276" s="19"/>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C278" s="19"/>
       <c r="D278" s="19"/>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C280" s="19"/>
       <c r="D280" s="19"/>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C282" s="19"/>
       <c r="D282" s="19"/>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C284" s="19"/>
       <c r="D284" s="19"/>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C285" s="19"/>
       <c r="D285" s="19"/>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C286" s="19"/>
       <c r="D286" s="19"/>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C287" s="19"/>
       <c r="D287" s="19"/>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C288" s="19"/>
       <c r="D288" s="19"/>
@@ -5635,7 +5635,7 @@
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B289" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C289" s="19"/>
       <c r="D289" s="19"/>
@@ -5645,7 +5645,7 @@
     </row>
     <row r="290" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B290" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C290" s="19"/>
       <c r="D290" s="19"/>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B291" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C291" s="19"/>
       <c r="D291" s="19"/>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B292" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C292" s="19"/>
       <c r="D292" s="19"/>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B293" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C293" s="19"/>
       <c r="D293" s="19"/>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B295" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C295" s="19"/>
       <c r="D295" s="19"/>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B297" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C297" s="19"/>
       <c r="D297" s="19"/>
@@ -5729,7 +5729,7 @@
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B299" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C299" s="19"/>
       <c r="D299" s="19"/>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B301" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C301" s="19"/>
       <c r="D301" s="19"/>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="303" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B303" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C303" s="19"/>
       <c r="D303" s="19"/>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B304" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C304" s="19"/>
       <c r="D304" s="19"/>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B305" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C305" s="19"/>
       <c r="D305" s="19"/>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B306" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C306" s="19"/>
       <c r="D306" s="19"/>
@@ -5805,7 +5805,7 @@
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B307" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C307" s="19"/>
       <c r="D307" s="19"/>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B308" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C308" s="19"/>
       <c r="D308" s="19"/>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B309" s="19" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C309" s="19"/>
       <c r="D309" s="19"/>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B310" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C310" s="19"/>
       <c r="D310" s="19"/>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B311" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C311" s="19"/>
       <c r="D311" s="19"/>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B313" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C313" s="19"/>
       <c r="D313" s="19"/>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B314" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C314" s="19"/>
       <c r="D314" s="19"/>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B315" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C315" s="19"/>
       <c r="D315" s="19"/>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B316" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C316" s="19"/>
       <c r="D316" s="19"/>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B317" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C317" s="19"/>
       <c r="D317" s="19"/>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B318" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C318" s="19"/>
       <c r="D318" s="19"/>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B319" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C319" s="19"/>
       <c r="D319" s="19"/>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B320" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C320" s="19"/>
       <c r="D320" s="19"/>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B321" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C321" s="19"/>
       <c r="D321" s="19"/>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B322" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C322" s="19"/>
       <c r="D322" s="19"/>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B324" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C324" s="19"/>
       <c r="D324" s="19"/>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B325" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C325" s="19"/>
       <c r="D325" s="19"/>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B326" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C326" s="19"/>
       <c r="D326" s="19"/>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B327" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C327" s="19"/>
       <c r="D327" s="19"/>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B329" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C329" s="19"/>
       <c r="D329" s="19"/>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B331" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C331" s="19"/>
       <c r="D331" s="19"/>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B333" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C333" s="19"/>
       <c r="D333" s="19"/>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B335" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C335" s="19"/>
       <c r="D335" s="19"/>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B337" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C337" s="19"/>
       <c r="D337" s="19"/>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B338" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C338" s="19"/>
       <c r="D338" s="19"/>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B340" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C340" s="19"/>
       <c r="D340" s="19"/>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B341" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C341" s="19"/>
       <c r="D341" s="19"/>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B342" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C342" s="19"/>
       <c r="D342" s="19"/>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B344" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C344" s="19"/>
       <c r="D344" s="19"/>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B345" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C345" s="19"/>
       <c r="D345" s="19"/>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B346" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C346" s="19"/>
       <c r="D346" s="19"/>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B347" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C347" s="19"/>
       <c r="D347" s="19"/>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B348" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C348" s="19"/>
       <c r="D348" s="19"/>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B349" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C349" s="19"/>
       <c r="D349" s="19"/>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B351" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C351" s="19"/>
       <c r="D351" s="19"/>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B353" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C353" s="19"/>
       <c r="D353" s="19"/>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B355" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C355" s="19"/>
       <c r="D355" s="19"/>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B356" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C356" s="19"/>
       <c r="D356" s="19"/>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B357" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C357" s="19"/>
       <c r="D357" s="19"/>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B358" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C358" s="19"/>
       <c r="D358" s="19"/>
@@ -6301,7 +6301,7 @@
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B359" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C359" s="19"/>
       <c r="D359" s="19"/>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B360" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C360" s="19"/>
       <c r="D360" s="19"/>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B361" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C361" s="19"/>
       <c r="D361" s="19"/>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B363" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C363" s="19"/>
       <c r="D363" s="19"/>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B365" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C365" s="19"/>
       <c r="D365" s="19"/>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B367" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C367" s="19"/>
       <c r="D367" s="19"/>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B369" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C369" s="19"/>
       <c r="D369" s="19"/>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B370" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C370" s="19"/>
       <c r="D370" s="19"/>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B371" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C371" s="19"/>
       <c r="D371" s="19"/>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B372" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C372" s="19"/>
       <c r="D372" s="19"/>
@@ -6441,7 +6441,7 @@
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B374" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C374" s="19"/>
       <c r="D374" s="19"/>
@@ -6459,7 +6459,7 @@
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B376" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C376" s="19"/>
       <c r="D376" s="19"/>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B378" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C378" s="19"/>
       <c r="D378" s="19"/>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B380" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C380" s="19"/>
       <c r="D380" s="19"/>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B382" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C382" s="19"/>
       <c r="D382" s="19"/>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B384" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C384" s="19"/>
       <c r="D384" s="19"/>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B386" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C386" s="19"/>
       <c r="D386" s="19"/>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B388" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C388" s="19"/>
       <c r="D388" s="19"/>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B389" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C389" s="19"/>
       <c r="D389" s="19"/>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B390" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C390" s="19"/>
       <c r="D390" s="19"/>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B391" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C391" s="19"/>
       <c r="D391" s="19"/>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B393" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C393" s="19"/>
       <c r="D393" s="19"/>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B395" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C395" s="19"/>
       <c r="D395" s="19"/>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B397" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C397" s="19"/>
       <c r="D397" s="19"/>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B399" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C399" s="19"/>
       <c r="D399" s="19"/>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B401" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C401" s="19"/>
       <c r="D401" s="19"/>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B403" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C403" s="19"/>
       <c r="D403" s="19"/>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B405" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C405" s="19"/>
       <c r="D405" s="19"/>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B407" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C407" s="19"/>
       <c r="D407" s="19"/>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B409" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C409" s="19"/>
       <c r="D409" s="19"/>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B411" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C411" s="19"/>
       <c r="D411" s="19"/>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B413" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C413" s="19"/>
       <c r="D413" s="19"/>
@@ -6813,7 +6813,7 @@
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B415" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C415" s="19"/>
       <c r="D415" s="19"/>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B417" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C417" s="19"/>
       <c r="D417" s="19"/>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B418" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C418" s="19"/>
       <c r="D418" s="19"/>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B419" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C419" s="19"/>
       <c r="D419" s="19"/>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B420" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C420" s="19"/>
       <c r="D420" s="19"/>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B422" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C422" s="19"/>
       <c r="D422" s="19"/>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B423" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C423" s="19"/>
       <c r="D423" s="19"/>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B424" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C424" s="19"/>
       <c r="D424" s="19"/>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B425" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C425" s="19"/>
       <c r="D425" s="19"/>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B427" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C427" s="19"/>
       <c r="D427" s="19"/>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B429" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C429" s="19"/>
       <c r="D429" s="19"/>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B431" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C431" s="19"/>
       <c r="D431" s="19"/>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="432" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B432" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C432" s="19"/>
       <c r="D432" s="19"/>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="433" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B433" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C433" s="19"/>
       <c r="D433" s="19"/>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="434" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B434" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C434" s="19"/>
       <c r="D434" s="19"/>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="435" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B435" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C435" s="19"/>
       <c r="D435" s="19"/>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B436" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C436" s="19"/>
       <c r="D436" s="19"/>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="438" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B438" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C438" s="19"/>
       <c r="D438" s="19"/>
@@ -7041,7 +7041,7 @@
     </row>
     <row r="439" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B439" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C439" s="19"/>
       <c r="D439" s="19"/>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B440" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C440" s="19"/>
       <c r="D440" s="19"/>
@@ -7061,7 +7061,7 @@
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B441" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C441" s="19"/>
       <c r="D441" s="19"/>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B442" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C442" s="19"/>
       <c r="D442" s="19"/>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="443" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B443" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C443" s="19"/>
       <c r="D443" s="19"/>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B445" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C445" s="19"/>
       <c r="D445" s="19"/>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B446" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C446" s="19"/>
       <c r="D446" s="19"/>
@@ -7119,7 +7119,7 @@
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B447" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C447" s="19"/>
       <c r="D447" s="19"/>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B448" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C448" s="19"/>
       <c r="D448" s="19"/>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="449" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B449" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C449" s="19"/>
       <c r="D449" s="19"/>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B450" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C450" s="19"/>
       <c r="D450" s="19"/>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="452" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B452" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C452" s="19"/>
       <c r="D452" s="19"/>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B454" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C454" s="19"/>
       <c r="D454" s="19"/>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="456" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B456" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C456" s="19"/>
       <c r="D456" s="19"/>
@@ -7221,7 +7221,7 @@
     </row>
     <row r="458" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B458" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C458" s="19"/>
       <c r="D458" s="19"/>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B459" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C459" s="19"/>
       <c r="D459" s="19"/>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="460" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B460" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C460" s="19"/>
       <c r="D460" s="19"/>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="461" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B461" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C461" s="19"/>
       <c r="D461" s="19"/>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="462" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B462" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C462" s="19"/>
       <c r="D462" s="19"/>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="464" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B464" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C464" s="19"/>
       <c r="D464" s="19"/>
@@ -7297,7 +7297,7 @@
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B466" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C466" s="19"/>
       <c r="D466" s="19"/>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="468" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B468" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C468" s="19"/>
       <c r="D468" s="19"/>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="470" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B470" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C470" s="19"/>
       <c r="D470" s="19"/>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="472" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B472" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C472" s="19"/>
       <c r="D472" s="19"/>
